--- a/tests/fixtures/models/4 - infra_year_timeslices/concept_multi_year.xlsx
+++ b/tests/fixtures/models/4 - infra_year_timeslices/concept_multi_year.xlsx
@@ -1,180 +1,330 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\default\prove_vale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\tests\fixtures\models\4 - infra_year_timeslices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5BD54-413E-4234-B706-DA39B89A79FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB600A1B-58B8-47FB-931C-F06D59B976EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2655" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{73D1BB93-2A40-4C42-A2A1-530AD39D3EEC}"/>
+    <workbookView xWindow="32025" yWindow="-2535" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{73D1BB93-2A40-4C42-A2A1-530AD39D3EEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="4. Infra-year timeslices" sheetId="1" r:id="rId1"/>
-    <sheet name="4. Infra-year timeslices_vale" sheetId="2" r:id="rId2"/>
+    <sheet name="4. Infra-year timeslices_v0" sheetId="1" r:id="rId1"/>
+    <sheet name="4.v1" sheetId="2" r:id="rId2"/>
+    <sheet name="4.v2_uncostrained" sheetId="4" r:id="rId3"/>
+    <sheet name="4.v2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="3" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="2" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="2" hidden="1">0</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="2" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$H$39:$I$41,'4. Infra-year timeslices'!$H$43:$I$45,'4. Infra-year timeslices'!$L$39:$M$41,'4. Infra-year timeslices'!$L$43:$M$45,'4. Infra-year timeslices'!$L$48:$N$49,'4. Infra-year timeslices'!$H$48:$J$49,'4. Infra-year timeslices'!$L$74:$N$75</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$G$35:$I$37,'4. Infra-year timeslices_vale'!$G$39:$I$41,'4. Infra-year timeslices_vale'!$K$35:$M$37,'4. Infra-year timeslices_vale'!$K$39:$M$41</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$H$39:$I$41,'4. Infra-year timeslices_v0'!$H$43:$I$45,'4. Infra-year timeslices_v0'!$L$39:$M$41,'4. Infra-year timeslices_v0'!$L$43:$M$45,'4. Infra-year timeslices_v0'!$L$48:$N$49,'4. Infra-year timeslices_v0'!$H$48:$J$49,'4. Infra-year timeslices_v0'!$L$74:$N$75</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'4.v1'!$G$35:$I$37,'4.v1'!$G$39:$I$41,'4.v1'!$K$35:$M$37,'4.v1'!$K$39:$M$41</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'4.v2'!$H$37:$I$39,'4.v2'!$H$41:$I$43,'4.v2'!$L$37:$M$39,'4.v2'!$L$41:$M$43,'4.v2'!$L$46:$N$47,'4.v2'!$H$46:$J$47</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'4.v2_uncostrained'!$H$37:$I$39,'4.v2_uncostrained'!$H$41:$I$43,'4.v2_uncostrained'!$L$37:$M$39,'4.v2_uncostrained'!$L$41:$M$43,'4.v2_uncostrained'!$L$46:$N$47,'4.v2_uncostrained'!$H$46:$J$47</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$AM$10:$AN$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$AL$9:$AN$10</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$43:$M$45</definedName>
-    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$39:$M$41</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$N$48:$N$49</definedName>
-    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$AT$9:$AU$9</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$39:$M$41</definedName>
-    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$AP$9:$AR$9</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$43:$M$45</definedName>
-    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$AL$14:$AN$15</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$N$48:$N$49</definedName>
-    <definedName name="solver_lhs14" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$AT$14:$AU$15</definedName>
-    <definedName name="solver_lhs15" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$39:$M$41</definedName>
-    <definedName name="solver_lhs15" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$35:$L$37</definedName>
-    <definedName name="solver_lhs16" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$43:$M$45</definedName>
-    <definedName name="solver_lhs16" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$39:$L$41</definedName>
-    <definedName name="solver_lhs17" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$39:$M$41</definedName>
-    <definedName name="solver_lhs17" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$35:$L$37</definedName>
-    <definedName name="solver_lhs18" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$43:$M$45</definedName>
-    <definedName name="solver_lhs18" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$39:$L$41</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$AM$15:$AN$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$AP$9:$AR$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$AP$10:$AR$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$AL$14:$AN$16</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$AT$10:$AV$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$AP$14:$AR$16</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$AP$15:$AR$16</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$35:$M$37</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$AT$15:$AV$16</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$39:$M$41</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$AX$10:$AY$10</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$35:$M$37</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$AX$15:$AY$16</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$35:$M$41</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$39:$M$41</definedName>
-    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$35:$M$41</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AM$10:$AN$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'4.v1'!$AL$9:$AN$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'4.v2'!$AM$10:$AN$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AM$10:$AN$11</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$43:$M$45</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'4.v1'!$K$39:$M$41</definedName>
+    <definedName name="solver_lhs10" localSheetId="3" hidden="1">'4.v2'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs10" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$N$48:$N$49</definedName>
+    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'4.v1'!$AT$9:$AU$9</definedName>
+    <definedName name="solver_lhs11" localSheetId="3" hidden="1">'4.v2'!$N$46:$N$47</definedName>
+    <definedName name="solver_lhs11" localSheetId="2" hidden="1">'4.v2_uncostrained'!$N$46:$N$47</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$39:$M$41</definedName>
+    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'4.v1'!$AP$9:$AR$9</definedName>
+    <definedName name="solver_lhs12" localSheetId="3" hidden="1">'4.v2'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs12" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$43:$M$45</definedName>
+    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'4.v1'!$AL$14:$AN$15</definedName>
+    <definedName name="solver_lhs13" localSheetId="3" hidden="1">'4.v2'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs13" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$N$48:$N$49</definedName>
+    <definedName name="solver_lhs14" localSheetId="1" hidden="1">'4.v1'!$AT$14:$AU$15</definedName>
+    <definedName name="solver_lhs14" localSheetId="3" hidden="1">'4.v2'!$N$46:$N$47</definedName>
+    <definedName name="solver_lhs14" localSheetId="2" hidden="1">'4.v2_uncostrained'!$N$46:$N$47</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$39:$M$41</definedName>
+    <definedName name="solver_lhs15" localSheetId="1" hidden="1">'4.v1'!$K$35:$L$37</definedName>
+    <definedName name="solver_lhs15" localSheetId="3" hidden="1">'4.v2'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs15" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs16" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$43:$M$45</definedName>
+    <definedName name="solver_lhs16" localSheetId="1" hidden="1">'4.v1'!$K$39:$L$41</definedName>
+    <definedName name="solver_lhs16" localSheetId="3" hidden="1">'4.v2'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs16" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs17" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$39:$M$41</definedName>
+    <definedName name="solver_lhs17" localSheetId="1" hidden="1">'4.v1'!$K$35:$L$37</definedName>
+    <definedName name="solver_lhs17" localSheetId="3" hidden="1">'4.v2'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs17" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs18" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$43:$M$45</definedName>
+    <definedName name="solver_lhs18" localSheetId="1" hidden="1">'4.v1'!$K$39:$L$41</definedName>
+    <definedName name="solver_lhs18" localSheetId="3" hidden="1">'4.v2'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs18" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AM$15:$AN$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'4.v1'!$AP$9:$AR$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'4.v2'!$AM$15:$AN$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AM$15:$AN$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AP$10:$AR$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'4.v1'!$AL$14:$AN$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'4.v2'!$AP$10:$AR$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AP$10:$AR$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AT$10:$AV$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'4.v1'!$AP$14:$AR$16</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'4.v2'!$AT$10:$AV$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AT$10:$AV$10</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AP$15:$AR$16</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'4.v1'!$K$35:$M$37</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'4.v2'!$AP$15:$AR$16</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AP$15:$AR$16</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AT$15:$AV$16</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'4.v1'!$K$39:$M$41</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'4.v2'!$AT$15:$AV$16</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AT$15:$AV$16</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AX$10:$AY$10</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'4.v1'!$K$35:$M$37</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">'4.v2'!$AX$10:$AY$10</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AX$10:$AY$10</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AX$15:$AY$16</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'4.v1'!$K$35:$M$41</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">'4.v2'!$AX$15:$AY$16</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AX$15:$AY$16</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$39:$M$41</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'4.v1'!$K$35:$M$41</definedName>
+    <definedName name="solver_lhs9" localSheetId="3" hidden="1">'4.v2'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$37:$M$39</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">14</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">11</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$Q$18</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$P$17</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$Q$18</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'4.v1'!$P$17</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'4.v2'!$Q$18</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'4.v2_uncostrained'!$Q$18</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel11" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel12" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel13" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel14" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel14" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel14" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel14" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel15" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel15" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel16" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel16" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel16" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel16" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel17" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel17" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel17" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel17" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel18" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel18" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel18" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel18" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$56:$M$58</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$56:$M$58</definedName>
     <definedName name="solver_rhs10" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs11" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$N$59:$N$60</definedName>
+    <definedName name="solver_rhs10" localSheetId="3" hidden="1">'4.v2'!$L$58:$M$60</definedName>
+    <definedName name="solver_rhs10" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$58:$M$60</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$N$59:$N$60</definedName>
     <definedName name="solver_rhs11" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs12" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$63:$M$65</definedName>
+    <definedName name="solver_rhs11" localSheetId="3" hidden="1">'4.v2'!$N$61:$N$62</definedName>
+    <definedName name="solver_rhs11" localSheetId="2" hidden="1">'4.v2_uncostrained'!$N$61:$N$62</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$63:$M$65</definedName>
     <definedName name="solver_rhs12" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs13" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$67:$M$69</definedName>
+    <definedName name="solver_rhs12" localSheetId="3" hidden="1">'4.v2'!$L$65:$M$67</definedName>
+    <definedName name="solver_rhs12" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$65:$M$67</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$67:$M$69</definedName>
     <definedName name="solver_rhs13" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs14" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$N$70:$N$71</definedName>
+    <definedName name="solver_rhs13" localSheetId="3" hidden="1">'4.v2'!$L$69:$M$71</definedName>
+    <definedName name="solver_rhs13" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$69:$M$71</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$N$70:$N$71</definedName>
     <definedName name="solver_rhs14" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs15" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$52:$M$54</definedName>
-    <definedName name="solver_rhs15" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$53:$L$55</definedName>
-    <definedName name="solver_rhs16" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$56:$M$58</definedName>
-    <definedName name="solver_rhs16" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$57:$L$59</definedName>
-    <definedName name="solver_rhs17" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$63:$M$65</definedName>
-    <definedName name="solver_rhs17" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$62:$L$64</definedName>
-    <definedName name="solver_rhs18" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$67:$M$69</definedName>
-    <definedName name="solver_rhs18" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$66:$L$68</definedName>
+    <definedName name="solver_rhs14" localSheetId="3" hidden="1">'4.v2'!$N$72:$N$73</definedName>
+    <definedName name="solver_rhs14" localSheetId="2" hidden="1">'4.v2_uncostrained'!$N$72:$N$73</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$52:$M$54</definedName>
+    <definedName name="solver_rhs15" localSheetId="1" hidden="1">'4.v1'!$K$53:$L$55</definedName>
+    <definedName name="solver_rhs15" localSheetId="3" hidden="1">'4.v2'!$L$54:$M$56</definedName>
+    <definedName name="solver_rhs15" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$54:$M$56</definedName>
+    <definedName name="solver_rhs16" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$56:$M$58</definedName>
+    <definedName name="solver_rhs16" localSheetId="1" hidden="1">'4.v1'!$K$57:$L$59</definedName>
+    <definedName name="solver_rhs16" localSheetId="3" hidden="1">'4.v2'!$L$58:$M$60</definedName>
+    <definedName name="solver_rhs16" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$58:$M$60</definedName>
+    <definedName name="solver_rhs17" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$63:$M$65</definedName>
+    <definedName name="solver_rhs17" localSheetId="1" hidden="1">'4.v1'!$K$62:$L$64</definedName>
+    <definedName name="solver_rhs17" localSheetId="3" hidden="1">'4.v2'!$L$65:$M$67</definedName>
+    <definedName name="solver_rhs17" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$65:$M$67</definedName>
+    <definedName name="solver_rhs18" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$67:$M$69</definedName>
+    <definedName name="solver_rhs18" localSheetId="1" hidden="1">'4.v1'!$K$66:$L$68</definedName>
+    <definedName name="solver_rhs18" localSheetId="3" hidden="1">'4.v2'!$L$69:$M$71</definedName>
+    <definedName name="solver_rhs18" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$69:$M$71</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$53:$M$55</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'4.v1'!$K$53:$M$55</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$57:$M$59</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'4.v1'!$K$57:$M$59</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$53:$M$59</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'4. Infra-year timeslices'!$L$52:$M$54</definedName>
-    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'4. Infra-year timeslices_vale'!$K$62:$M$68</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'4.v1'!$K$53:$M$59</definedName>
+    <definedName name="solver_rhs8" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$52:$M$54</definedName>
+    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'4.v1'!$K$62:$M$68</definedName>
+    <definedName name="solver_rhs9" localSheetId="3" hidden="1">'4.v2'!$L$54:$M$56</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$54:$M$56</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -198,7 +348,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -220,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="90">
   <si>
     <t>Back to contents</t>
   </si>
@@ -405,9 +555,6 @@
     <t>X_h</t>
   </si>
   <si>
-    <t>Q_y</t>
-  </si>
-  <si>
     <t>X_y</t>
   </si>
   <si>
@@ -472,6 +619,27 @@
   </si>
   <si>
     <t>Q_agg_h - Y_h'-u_h*X_h' = 0</t>
+  </si>
+  <si>
+    <t>Q_y_y</t>
+  </si>
+  <si>
+    <t>Q_y_h</t>
+  </si>
+  <si>
+    <t>X_y_y</t>
+  </si>
+  <si>
+    <t>Cost O&amp;M</t>
+  </si>
+  <si>
+    <t>Q_agg_h - Y_h'-u_h*X_h' - u_y*X_y'/(n_periods*n_slices) = 0</t>
+  </si>
+  <si>
+    <t>X_y_h</t>
+  </si>
+  <si>
+    <t>X_max_y = lf_max_y * diag(Cap_op_y)</t>
   </si>
 </sst>
 </file>
@@ -529,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,8 +740,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -793,12 +967,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,6 +1073,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1214,10 +1430,10 @@
   <dimension ref="A1:AZ93"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24:N25"/>
+      <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,6 +1454,7 @@
     <col min="30" max="30" width="1.7109375" customWidth="1"/>
     <col min="34" max="34" width="1.28515625" customWidth="1"/>
     <col min="41" max="41" width="10.28515625" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2199,34 +2416,48 @@
         <v>0.37934667999999999</v>
       </c>
     </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="H46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>62</v>
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s">
+        <v>84</v>
+      </c>
+      <c r="L47" t="s">
+        <v>85</v>
+      </c>
+      <c r="N47" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="72">
         <v>769.23077000000001</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="73">
         <v>461.53845999999999</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="70">
         <v>230.76922999999999</v>
       </c>
-      <c r="L48" s="26">
+      <c r="L48" s="72">
         <v>769.23077000000001</v>
       </c>
-      <c r="M48" s="26">
+      <c r="M48" s="73">
         <v>461.53845999999999</v>
       </c>
-      <c r="N48" s="26">
+      <c r="N48" s="70">
         <v>230.76922999999999</v>
       </c>
     </row>
@@ -2234,28 +2465,28 @@
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="74">
         <v>1153.8462</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="75">
         <v>692.30768999999998</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J49" s="71">
         <v>346.15384999999998</v>
       </c>
-      <c r="L49" s="26">
+      <c r="L49" s="74">
         <v>1153.8462</v>
       </c>
-      <c r="M49" s="26">
+      <c r="M49" s="75">
         <v>692.30768999999998</v>
       </c>
-      <c r="N49" s="26">
+      <c r="N49" s="71">
         <v>346.15384999999998</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -2334,7 +2565,7 @@
         <v>1.1380400369999999</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -2356,7 +2587,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -2434,7 +2665,7 @@
         <v>0.37934667899999996</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -2450,10 +2681,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P73" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="P73" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -2498,7 +2729,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L77" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -2532,7 +2763,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L81" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -2566,7 +2797,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L85" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -2600,7 +2831,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L89" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -2682,11 +2913,11 @@
   </sheetPr>
   <dimension ref="A1:AV71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12:U13"/>
+      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,13 +3159,13 @@
         <v>28</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT8" s="3" t="s">
         <v>33</v>
@@ -3155,7 +3386,7 @@
     </row>
     <row r="11" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -3393,10 +3624,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="32" t="s">
         <v>73</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>74</v>
       </c>
       <c r="K20" s="5">
         <v>5000</v>
@@ -3420,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K22" s="5">
         <v>8000</v>
@@ -3715,10 +3946,10 @@
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="G43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.25">
@@ -3781,7 +4012,7 @@
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="K47" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.25">
@@ -3809,7 +4040,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K52" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3918,7 +4149,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K61" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4028,4 +4259,2860 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7748C287-06D8-4186-B616-E18E74BCD1AA}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AZ95"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="18" max="18" width="3.28515625" customWidth="1"/>
+    <col min="23" max="23" width="1.7109375" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="1.28515625" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="1.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T10" s="76" cm="1">
+        <f t="array" ref="T10:V10">P10/P14*T13:V13</f>
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="U10" s="77">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="V10" s="77">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="77" cm="1">
+        <f t="array" ref="X10:Z10">Q10/P14*T13:V13</f>
+        <v>0.82191780821917826</v>
+      </c>
+      <c r="Y10" s="77">
+        <v>2.0547945205479454</v>
+      </c>
+      <c r="Z10" s="78">
+        <v>1.2328767123287672</v>
+      </c>
+      <c r="AB10" s="6" cm="1">
+        <f t="array" ref="AB10:AC11">MMULT(H10:J11,TRANSPOSE(H46:J47))</f>
+        <v>1050</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>1550</v>
+      </c>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="6" cm="1">
+        <f t="array" ref="AE10:AG10">MMULT(H10:I10,TRANSPOSE(H37:I39))</f>
+        <v>0.59360731</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>1.4155251</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="AI10" s="6" cm="1">
+        <f t="array" ref="AI10:AK10">MMULT(H10:I10,TRANSPOSE(H41:I43))</f>
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>2.1004565999999998</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>1.2785388</v>
+      </c>
+      <c r="AM10" s="7" cm="1">
+        <f t="array" ref="AM10:AN11">_xlfn.ANCHORARRAY(AB10)-P10:Q11-MMULT(L10:N11,TRANSPOSE(L46:N47))</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="11" cm="1">
+        <f t="array" ref="AP10:AR10">AE10:AG10-_xlfn.ANCHORARRAY(T10)-MMULT(L10:M10,TRANSPOSE(L37:M39))-MMULT(N10,N46)/(P14*Q14)</f>
+        <v>4.0639269727194005E-9</v>
+      </c>
+      <c r="AQ10" s="12">
+        <v>-1.4155251082392795E-8</v>
+      </c>
+      <c r="AR10" s="13">
+        <v>1.3242009710978664E-9</v>
+      </c>
+      <c r="AT10" s="11" cm="1">
+        <f t="array" ref="AT10:AV10">_xlfn.ANCHORARRAY(AI10)-_xlfn.ANCHORARRAY(X10)-MMULT(L10:M10,TRANSPOSE(L41:M43))-MMULT(N10,MMULT(TRANSPOSE(N47),TRANSPOSE(Y13:Y15)))/P14</f>
+        <v>1.3242007559921554E-9</v>
+      </c>
+      <c r="AU10" s="12">
+        <v>-2.1004566634619248E-8</v>
+      </c>
+      <c r="AV10" s="13">
+        <v>-1.2785388185665436E-8</v>
+      </c>
+      <c r="AX10" s="14">
+        <f>AB10-SUM(_xlfn.ANCHORARRAY(AE10))*P14</f>
+        <v>3.2000000373955118E-6</v>
+      </c>
+      <c r="AY10" s="14">
+        <f>AC10-SUM(_xlfn.ANCHORARRAY(AI10))*P14</f>
+        <v>1.1849999964397284E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AM11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP12" cm="1">
+        <f t="array" ref="AP12:AR12">AE10:AG10-_xlfn.ANCHORARRAY(T10)-MMULT(L10:M10,TRANSPOSE(L37:M39))-MMULT(N10,N46/3)/P14</f>
+        <v>4.0639269657805066E-9</v>
+      </c>
+      <c r="AQ12">
+        <v>-1.4155251089331689E-8</v>
+      </c>
+      <c r="AR12">
+        <v>1.3242009641589725E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="Y13" s="22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="37">
+        <v>365</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>0.2</v>
+      </c>
+      <c r="U14">
+        <v>0.2</v>
+      </c>
+      <c r="V14">
+        <v>0.6</v>
+      </c>
+      <c r="Y14" s="22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM15" s="7" cm="1">
+        <f t="array" ref="AM15:AN17">TRANSPOSE(L46:N47)-MMULT(H14:J16,TRANSPOSE(H46:J47))</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="83" cm="1">
+        <f t="array" ref="AP15:AR16">TRANSPOSE(L37:M39)-MMULT(H14:I15,TRANSPOSE(H37:I39))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="83" cm="1">
+        <f t="array" ref="AT15:AV16">TRANSPOSE(L41:M43)-MMULT(H14:I15,TRANSPOSE(H41:I43))</f>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="14">
+        <f>L46-SUM(L37:L39)*P14</f>
+        <v>3.2000000373955118E-6</v>
+      </c>
+      <c r="AY15" s="14">
+        <f>L47-SUM(L41:L43)*P14</f>
+        <v>1.1849999964397284E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="16">
+        <v>1.1368684000000001E-13</v>
+      </c>
+      <c r="AN16" s="17">
+        <v>-2.8421708999999998E-13</v>
+      </c>
+      <c r="AP16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="14">
+        <f>M46-SUM(M37:M39)*P14</f>
+        <v>1.1368684000000001E-13</v>
+      </c>
+      <c r="AY16" s="14">
+        <f>M47-SUM(M41:M43)*P14</f>
+        <v>-2.8421708999999998E-13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="22">
+        <v>1</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="Q18" s="21">
+        <f>SUM(_xlfn.ANCHORARRAY(L50))</f>
+        <v>1300.9999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="84">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="84">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="5">
+        <v>6000</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2500</v>
+      </c>
+      <c r="M33" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="5">
+        <v>8000</v>
+      </c>
+      <c r="L35" s="5">
+        <v>2500</v>
+      </c>
+      <c r="M35" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="H36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="55">
+        <v>0.59360731</v>
+      </c>
+      <c r="I37" s="55">
+        <v>0</v>
+      </c>
+      <c r="L37" s="55">
+        <v>0.59360731</v>
+      </c>
+      <c r="M37" s="55">
+        <v>0</v>
+      </c>
+      <c r="N37" s="24"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="55">
+        <v>1.4155251</v>
+      </c>
+      <c r="I38" s="55">
+        <v>0</v>
+      </c>
+      <c r="L38" s="55">
+        <v>1.4155251</v>
+      </c>
+      <c r="M38" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="55">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="I39" s="55">
+        <v>0</v>
+      </c>
+      <c r="L39" s="55">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="M39" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="25"/>
+      <c r="AX39" s="25"/>
+      <c r="AY39" s="25"/>
+      <c r="AZ39" s="25"/>
+    </row>
+    <row r="40" spans="1:52" s="25" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40"/>
+      <c r="N40"/>
+      <c r="AW40"/>
+      <c r="AX40"/>
+      <c r="AY40"/>
+      <c r="AZ40"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="55">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="I41" s="55">
+        <v>0</v>
+      </c>
+      <c r="L41" s="55">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="M41" s="55">
+        <v>0</v>
+      </c>
+      <c r="N41" s="24"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="55">
+        <v>2.1004565999999998</v>
+      </c>
+      <c r="I42" s="55">
+        <v>0</v>
+      </c>
+      <c r="L42" s="55">
+        <v>2.1004565999999998</v>
+      </c>
+      <c r="M42" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="55">
+        <v>1.2785388</v>
+      </c>
+      <c r="I43" s="55">
+        <v>0</v>
+      </c>
+      <c r="L43" s="55">
+        <v>1.2785388</v>
+      </c>
+      <c r="M43" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="H44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45" t="s">
+        <v>88</v>
+      </c>
+      <c r="N45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="81">
+        <v>1050</v>
+      </c>
+      <c r="I46" s="53">
+        <v>0</v>
+      </c>
+      <c r="J46" s="79">
+        <v>50</v>
+      </c>
+      <c r="L46" s="81">
+        <v>1050</v>
+      </c>
+      <c r="M46" s="53">
+        <v>1.1368684000000001E-13</v>
+      </c>
+      <c r="N46" s="79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="82">
+        <v>1550</v>
+      </c>
+      <c r="I47" s="60">
+        <v>0</v>
+      </c>
+      <c r="J47" s="80">
+        <v>50</v>
+      </c>
+      <c r="L47" s="82">
+        <v>1550</v>
+      </c>
+      <c r="M47" s="60">
+        <v>-2.8421708999999998E-13</v>
+      </c>
+      <c r="N47" s="80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L49" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L50" s="26" cm="1">
+        <f t="array" ref="L50:N51">L18:N18*L46:N47</f>
+        <v>525</v>
+      </c>
+      <c r="M50" s="26">
+        <v>1.1368684000000001E-13</v>
+      </c>
+      <c r="N50" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L51" s="26">
+        <v>775</v>
+      </c>
+      <c r="M51" s="26">
+        <v>-2.8421708999999998E-13</v>
+      </c>
+      <c r="N51" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L53" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="array" ref="L54:M56">MMULT(L21:M23,_xlfn.MUNIT(2)*K33:L33)/(P14*Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>2.0547945205479454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1.9178082191780821</v>
+      </c>
+      <c r="M55" s="5">
+        <v>1.5981735159817352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="M56" s="5">
+        <v>1.8264840182648401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="array" ref="L58:M60">MMULT(L21:M23,_xlfn.MUNIT(2)*K35:L35)/(P14*Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>2.0547945205479454</v>
+      </c>
+      <c r="N58" s="27"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="5">
+        <v>2.5570776255707761</v>
+      </c>
+      <c r="M59" s="5">
+        <v>1.5981735159817352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1.8264840182648401</v>
+      </c>
+      <c r="M60" s="5">
+        <v>1.8264840182648401</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="28">
+        <f>M33*N24</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="28">
+        <f>M35*N25</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L64" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="L65" s="5">
+        <f t="array" ref="L65:M67">MMULT(L27:M29,L80:M80*_xlfn.MUNIT(2))</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="L69" s="5">
+        <f t="array" ref="L69:M71">MMULT(L27:M29,L81:M81*_xlfn.MUNIT(2))</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="28">
+        <f>M35*N30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="28">
+        <f>M35*N31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Contents!A1" display="Back to contents" xr:uid="{E35B5FBE-017F-43D9-90D8-F2A92205FB0F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA78D959-20DA-4A4E-95C6-992EA69958F2}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AZ95"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10:Z10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="18" max="18" width="3.28515625" customWidth="1"/>
+    <col min="23" max="23" width="1.7109375" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="1.28515625" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="1.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T10" s="76" cm="1">
+        <f t="array" ref="T10:V10">P10/P14*T13:V13</f>
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="U10" s="77">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="V10" s="77">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="77" cm="1">
+        <f t="array" ref="X10:Z10">Q10/P14*T13:V13</f>
+        <v>0.82191780821917826</v>
+      </c>
+      <c r="Y10" s="77">
+        <v>2.0547945205479454</v>
+      </c>
+      <c r="Z10" s="78">
+        <v>1.2328767123287672</v>
+      </c>
+      <c r="AB10" s="6" cm="1">
+        <f t="array" ref="AB10:AC11">MMULT(H10:J11,TRANSPOSE(H46:J47))</f>
+        <v>1050</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>1549.9999700000001</v>
+      </c>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="6" cm="1">
+        <f t="array" ref="AE10:AG10">MMULT(H10:I10,TRANSPOSE(H37:I39))</f>
+        <v>0.59360730999999956</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>1.4155251</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="AI10" s="6" cm="1">
+        <f t="array" ref="AI10:AK10">MMULT(H10:I10,TRANSPOSE(H41:I43))</f>
+        <v>0.86757991000000034</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>2.1004565999999998</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>1.2785388</v>
+      </c>
+      <c r="AM10" s="7" cm="1">
+        <f t="array" ref="AM10:AN11">_xlfn.ANCHORARRAY(AB10)-P10:Q11-MMULT(L10:N11,TRANSPOSE(L46:N47))</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>-2.9999999924257281E-5</v>
+      </c>
+      <c r="AP10" s="11" cm="1">
+        <f t="array" ref="AP10:AR10">AE10:AG10-_xlfn.ANCHORARRAY(T10)-MMULT(L10:M10,TRANSPOSE(L37:M39))-MMULT(N10,N46)/(P14*Q14)</f>
+        <v>4.0639265286301907E-9</v>
+      </c>
+      <c r="AQ10" s="12">
+        <v>-1.4155251082392795E-8</v>
+      </c>
+      <c r="AR10" s="13">
+        <v>1.3242009710978664E-9</v>
+      </c>
+      <c r="AT10" s="11" cm="1">
+        <f t="array" ref="AT10:AV10">_xlfn.ANCHORARRAY(AI10)-_xlfn.ANCHORARRAY(X10)-MMULT(L10:M10,TRANSPOSE(L41:M43))-MMULT(N10,MMULT(TRANSPOSE(N47),TRANSPOSE(Y13:Y15)))/P14</f>
+        <v>1.3242010890590628E-9</v>
+      </c>
+      <c r="AU10" s="12">
+        <v>-2.1004566634619248E-8</v>
+      </c>
+      <c r="AV10" s="13">
+        <v>-1.2785388185665436E-8</v>
+      </c>
+      <c r="AX10" s="14">
+        <f>AB10-SUM(_xlfn.ANCHORARRAY(AE10))*P14</f>
+        <v>3.2000002647691872E-6</v>
+      </c>
+      <c r="AY10" s="14">
+        <f>AC10-SUM(_xlfn.ANCHORARRAY(AI10))*P14</f>
+        <v>-1.8149999959859997E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AM11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP12" cm="1">
+        <f t="array" ref="AP12:AR12">AE10:AG10-_xlfn.ANCHORARRAY(T10)-MMULT(L10:M10,TRANSPOSE(L37:M39))-MMULT(N10,N46/3)/P14</f>
+        <v>4.0639265216912968E-9</v>
+      </c>
+      <c r="AQ12">
+        <v>-1.4155251089331689E-8</v>
+      </c>
+      <c r="AR12">
+        <v>1.3242009641589725E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="Y13" s="22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="37">
+        <v>365</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM15" s="7" cm="1">
+        <f t="array" ref="AM15:AN17">TRANSPOSE(L46:N47)-MMULT(H14:J16,TRANSPOSE(H46:J47))</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="83" cm="1">
+        <f t="array" ref="AP15:AR16">TRANSPOSE(L37:M39)-MMULT(H14:I15,TRANSPOSE(H37:I39))</f>
+        <v>4.6720617999999995E-16</v>
+      </c>
+      <c r="AQ15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="83" cm="1">
+        <f t="array" ref="AT15:AV16">TRANSPOSE(L41:M43)-MMULT(H14:I15,TRANSPOSE(H41:I43))</f>
+        <v>-3.1147079000000002E-16</v>
+      </c>
+      <c r="AU15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="14">
+        <f>L46-SUM(L37:L39)*P14</f>
+        <v>1.3500000477506546E-6</v>
+      </c>
+      <c r="AY15" s="14">
+        <f>L47-SUM(L41:L43)*P14</f>
+        <v>-2.1000000060666935E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="14">
+        <f>M46-SUM(M37:M39)*P14</f>
+        <v>1.8500000180665666E-6</v>
+      </c>
+      <c r="AY16" s="14">
+        <f>M47-SUM(M41:M43)*P14</f>
+        <v>2.8499999871200998E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Q17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AM17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="22">
+        <v>1</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="Q18" s="21">
+        <f>SUM(_xlfn.ANCHORARRAY(L50))</f>
+        <v>1567.666655</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AD19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Y20" s="85" cm="1">
+        <f t="array" ref="Y20:AA22">_xlfn.MUNIT(3)*T13:V13</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z20" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Y21" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="AA21" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y22" s="85">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="85">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="84">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="84">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T29" cm="1">
+        <f t="array" ref="T29:V29">MMULT(P10,T13:V13)/365</f>
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="U29">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="V29">
+        <v>0.82191780821917804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <f>1/(365*3)</f>
+        <v>9.1324200913242006E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="5">
+        <v>6000</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2500</v>
+      </c>
+      <c r="M33" s="5">
+        <v>2500</v>
+      </c>
+      <c r="U33">
+        <f>1/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="5">
+        <v>8000</v>
+      </c>
+      <c r="L35" s="5">
+        <v>2500</v>
+      </c>
+      <c r="M35" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="H36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="55">
+        <v>-4.6720617999999995E-16</v>
+      </c>
+      <c r="I37" s="55">
+        <v>0.59360731</v>
+      </c>
+      <c r="L37" s="55">
+        <v>0</v>
+      </c>
+      <c r="M37" s="55">
+        <v>0.59360731</v>
+      </c>
+      <c r="N37" s="24"/>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="U37" cm="1">
+        <f t="array" ref="U37:V37">MMULT(Q37:S37,L37:M39)*365</f>
+        <v>833.33332865</v>
+      </c>
+      <c r="V37">
+        <v>216.66666814999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="55">
+        <v>1.4155251</v>
+      </c>
+      <c r="I38" s="55">
+        <v>0</v>
+      </c>
+      <c r="L38" s="55">
+        <v>1.4155251</v>
+      </c>
+      <c r="M38" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="55">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="I39" s="55">
+        <v>0</v>
+      </c>
+      <c r="L39" s="55">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="M39" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="25"/>
+      <c r="AX39" s="25"/>
+      <c r="AY39" s="25"/>
+      <c r="AZ39" s="25"/>
+    </row>
+    <row r="40" spans="1:52" s="25" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40"/>
+      <c r="N40"/>
+      <c r="AW40"/>
+      <c r="AX40"/>
+      <c r="AY40"/>
+      <c r="AZ40"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="55">
+        <v>3.1147079000000002E-16</v>
+      </c>
+      <c r="I41" s="55">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="L41" s="55">
+        <v>0</v>
+      </c>
+      <c r="M41" s="55">
+        <v>0.86757991000000001</v>
+      </c>
+      <c r="N41" s="24"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="55">
+        <v>2.1004565999999998</v>
+      </c>
+      <c r="I42" s="55">
+        <v>0</v>
+      </c>
+      <c r="L42" s="55">
+        <v>2.1004565999999998</v>
+      </c>
+      <c r="M42" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="55">
+        <v>1.2785388</v>
+      </c>
+      <c r="I43" s="55">
+        <v>0</v>
+      </c>
+      <c r="L43" s="55">
+        <v>1.2785388</v>
+      </c>
+      <c r="M43" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="H44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45" t="s">
+        <v>88</v>
+      </c>
+      <c r="N45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="81">
+        <v>833.33333000000005</v>
+      </c>
+      <c r="I46" s="53">
+        <v>216.66667000000001</v>
+      </c>
+      <c r="J46" s="79">
+        <v>50</v>
+      </c>
+      <c r="L46" s="81">
+        <v>833.33333000000005</v>
+      </c>
+      <c r="M46" s="53">
+        <v>216.66667000000001</v>
+      </c>
+      <c r="N46" s="79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="82">
+        <v>1233.3333</v>
+      </c>
+      <c r="I47" s="60">
+        <v>316.66667000000001</v>
+      </c>
+      <c r="J47" s="80">
+        <v>50</v>
+      </c>
+      <c r="L47" s="82">
+        <v>1233.3333</v>
+      </c>
+      <c r="M47" s="60">
+        <v>316.66667000000001</v>
+      </c>
+      <c r="N47" s="80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L49" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L50" s="26" cm="1">
+        <f t="array" ref="L50:N51">L18:N18*L46:N47</f>
+        <v>416.66666500000002</v>
+      </c>
+      <c r="M50" s="26">
+        <v>216.66667000000001</v>
+      </c>
+      <c r="N50" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L51" s="26">
+        <v>616.66665</v>
+      </c>
+      <c r="M51" s="26">
+        <v>316.66667000000001</v>
+      </c>
+      <c r="N51" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L53" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="array" ref="L54:M56">MMULT(L21:M23,_xlfn.MUNIT(2)*K33:L33)/(P14*Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>2.0547945205479454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1.9178082191780821</v>
+      </c>
+      <c r="M55" s="5">
+        <v>1.5981735159817352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="M56" s="5">
+        <v>1.8264840182648401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="array" ref="L58:M60">MMULT(L21:M23,_xlfn.MUNIT(2)*K35:L35)/(P14*Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>2.0547945205479454</v>
+      </c>
+      <c r="N58" s="27"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59" s="5">
+        <v>2.5570776255707761</v>
+      </c>
+      <c r="M59" s="5">
+        <v>1.5981735159817352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1.8264840182648401</v>
+      </c>
+      <c r="M60" s="5">
+        <v>1.8264840182648401</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="28">
+        <f>M33*N24</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="28">
+        <f>M35*N25</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L64" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="L65" s="5">
+        <f t="array" ref="L65:M67">MMULT(L27:M29,L80:M80*_xlfn.MUNIT(2))</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="L69" s="5">
+        <f t="array" ref="L69:M71">MMULT(L27:M29,L81:M81*_xlfn.MUNIT(2))</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="28">
+        <f>M35*N30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="28">
+        <f>M35*N31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Contents!A1" display="Back to contents" xr:uid="{ACCBD60B-A9B3-4720-AF89-3910570A3B77}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/fixtures/models/4 - infra_year_timeslices/concept_multi_year.xlsx
+++ b/tests/fixtures/models/4 - infra_year_timeslices/concept_multi_year.xlsx
@@ -8,324 +8,163 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\tests\fixtures\models\4 - infra_year_timeslices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB600A1B-58B8-47FB-931C-F06D59B976EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC724BE7-8F72-4AB9-A012-E43FB550A97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32025" yWindow="-2535" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{73D1BB93-2A40-4C42-A2A1-530AD39D3EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{73D1BB93-2A40-4C42-A2A1-530AD39D3EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="4. Infra-year timeslices_v0" sheetId="1" r:id="rId1"/>
-    <sheet name="4.v1" sheetId="2" r:id="rId2"/>
-    <sheet name="4.v2_uncostrained" sheetId="4" r:id="rId3"/>
-    <sheet name="4.v2" sheetId="3" r:id="rId4"/>
+    <sheet name="4.infra_year_timeslices" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
-    <definedName name="OpenSolver_ChosenSolver" localSheetId="3" hidden="1">CBC</definedName>
-    <definedName name="OpenSolver_ChosenSolver" localSheetId="2" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="OpenSolver_DualsNewSheet" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="OpenSolver_DualsNewSheet" localSheetId="2" hidden="1">0</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="OpenSolver_LinearityCheck" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="OpenSolver_LinearityCheck" localSheetId="2" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$H$39:$I$41,'4. Infra-year timeslices_v0'!$H$43:$I$45,'4. Infra-year timeslices_v0'!$L$39:$M$41,'4. Infra-year timeslices_v0'!$L$43:$M$45,'4. Infra-year timeslices_v0'!$L$48:$N$49,'4. Infra-year timeslices_v0'!$H$48:$J$49,'4. Infra-year timeslices_v0'!$L$74:$N$75</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'4.v1'!$G$35:$I$37,'4.v1'!$G$39:$I$41,'4.v1'!$K$35:$M$37,'4.v1'!$K$39:$M$41</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'4.v2'!$H$37:$I$39,'4.v2'!$H$41:$I$43,'4.v2'!$L$37:$M$39,'4.v2'!$L$41:$M$43,'4.v2'!$L$46:$N$47,'4.v2'!$H$46:$J$47</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'4.v2_uncostrained'!$H$37:$I$39,'4.v2_uncostrained'!$H$41:$I$43,'4.v2_uncostrained'!$L$37:$M$39,'4.v2_uncostrained'!$L$41:$M$43,'4.v2_uncostrained'!$L$46:$N$47,'4.v2_uncostrained'!$H$46:$J$47</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$H$37:$I$39,'4.infra_year_timeslices'!$H$41:$I$43,'4.infra_year_timeslices'!$L$37:$M$39,'4.infra_year_timeslices'!$L$41:$M$43,'4.infra_year_timeslices'!$L$46:$N$47,'4.infra_year_timeslices'!$H$46:$J$47</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AM$10:$AN$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'4.v1'!$AL$9:$AN$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'4.v2'!$AM$10:$AN$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AM$10:$AN$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$AM$10:$AN$11</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$43:$M$45</definedName>
-    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'4.v1'!$K$39:$M$41</definedName>
-    <definedName name="solver_lhs10" localSheetId="3" hidden="1">'4.v2'!$L$41:$M$43</definedName>
-    <definedName name="solver_lhs10" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$41:$M$43</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$N$48:$N$49</definedName>
-    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'4.v1'!$AT$9:$AU$9</definedName>
-    <definedName name="solver_lhs11" localSheetId="3" hidden="1">'4.v2'!$N$46:$N$47</definedName>
-    <definedName name="solver_lhs11" localSheetId="2" hidden="1">'4.v2_uncostrained'!$N$46:$N$47</definedName>
+    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$N$46:$N$47</definedName>
     <definedName name="solver_lhs12" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$39:$M$41</definedName>
-    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'4.v1'!$AP$9:$AR$9</definedName>
-    <definedName name="solver_lhs12" localSheetId="3" hidden="1">'4.v2'!$L$37:$M$39</definedName>
-    <definedName name="solver_lhs12" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$37:$M$39</definedName>
     <definedName name="solver_lhs13" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$43:$M$45</definedName>
-    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'4.v1'!$AL$14:$AN$15</definedName>
-    <definedName name="solver_lhs13" localSheetId="3" hidden="1">'4.v2'!$L$41:$M$43</definedName>
-    <definedName name="solver_lhs13" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$41:$M$43</definedName>
     <definedName name="solver_lhs14" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$N$48:$N$49</definedName>
-    <definedName name="solver_lhs14" localSheetId="1" hidden="1">'4.v1'!$AT$14:$AU$15</definedName>
-    <definedName name="solver_lhs14" localSheetId="3" hidden="1">'4.v2'!$N$46:$N$47</definedName>
-    <definedName name="solver_lhs14" localSheetId="2" hidden="1">'4.v2_uncostrained'!$N$46:$N$47</definedName>
+    <definedName name="solver_lhs14" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$N$46:$N$47</definedName>
     <definedName name="solver_lhs15" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$39:$M$41</definedName>
-    <definedName name="solver_lhs15" localSheetId="1" hidden="1">'4.v1'!$K$35:$L$37</definedName>
-    <definedName name="solver_lhs15" localSheetId="3" hidden="1">'4.v2'!$L$37:$M$39</definedName>
-    <definedName name="solver_lhs15" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs15" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$37:$M$39</definedName>
     <definedName name="solver_lhs16" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$43:$M$45</definedName>
-    <definedName name="solver_lhs16" localSheetId="1" hidden="1">'4.v1'!$K$39:$L$41</definedName>
-    <definedName name="solver_lhs16" localSheetId="3" hidden="1">'4.v2'!$L$41:$M$43</definedName>
-    <definedName name="solver_lhs16" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs16" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$41:$M$43</definedName>
     <definedName name="solver_lhs17" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$39:$M$41</definedName>
-    <definedName name="solver_lhs17" localSheetId="1" hidden="1">'4.v1'!$K$35:$L$37</definedName>
-    <definedName name="solver_lhs17" localSheetId="3" hidden="1">'4.v2'!$L$37:$M$39</definedName>
-    <definedName name="solver_lhs17" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$37:$M$39</definedName>
+    <definedName name="solver_lhs17" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$37:$M$39</definedName>
     <definedName name="solver_lhs18" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$43:$M$45</definedName>
-    <definedName name="solver_lhs18" localSheetId="1" hidden="1">'4.v1'!$K$39:$L$41</definedName>
-    <definedName name="solver_lhs18" localSheetId="3" hidden="1">'4.v2'!$L$41:$M$43</definedName>
-    <definedName name="solver_lhs18" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$41:$M$43</definedName>
+    <definedName name="solver_lhs18" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$41:$M$43</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AM$15:$AN$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'4.v1'!$AP$9:$AR$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'4.v2'!$AM$15:$AN$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AM$15:$AN$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$AM$15:$AN$17</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AP$10:$AR$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'4.v1'!$AL$14:$AN$16</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'4.v2'!$AP$10:$AR$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AP$10:$AR$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$AP$10:$AR$10</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AT$10:$AV$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'4.v1'!$AP$14:$AR$16</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'4.v2'!$AT$10:$AV$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AT$10:$AV$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$AT$10:$AV$10</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AP$15:$AR$16</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'4.v1'!$K$35:$M$37</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'4.v2'!$AP$15:$AR$16</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AP$15:$AR$16</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$AP$15:$AR$16</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AT$15:$AV$16</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'4.v1'!$K$39:$M$41</definedName>
-    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'4.v2'!$AT$15:$AV$16</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AT$15:$AV$16</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$AT$15:$AV$16</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AX$10:$AY$10</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'4.v1'!$K$35:$M$37</definedName>
-    <definedName name="solver_lhs7" localSheetId="3" hidden="1">'4.v2'!$AX$10:$AY$10</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AX$10:$AY$10</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$AX$10:$AY$10</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$AX$15:$AY$16</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'4.v1'!$K$35:$M$41</definedName>
-    <definedName name="solver_lhs8" localSheetId="3" hidden="1">'4.v2'!$AX$15:$AY$16</definedName>
-    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'4.v2_uncostrained'!$AX$15:$AY$16</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$AX$15:$AY$16</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$39:$M$41</definedName>
-    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'4.v1'!$K$35:$M$41</definedName>
-    <definedName name="solver_lhs9" localSheetId="3" hidden="1">'4.v2'!$L$37:$M$39</definedName>
-    <definedName name="solver_lhs9" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$37:$M$39</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$37:$M$39</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">14</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">11</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">11</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$Q$18</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'4.v1'!$P$17</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'4.v2'!$Q$18</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'4.v2_uncostrained'!$Q$18</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$Q$18</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel10" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel11" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel11" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel11" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel12" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel12" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel12" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel13" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel13" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel13" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel14" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel14" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel14" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel14" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel14" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel15" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel15" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel15" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel15" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel16" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel16" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel16" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel16" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel17" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel17" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel17" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel17" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel18" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel18" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel18" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel18" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel8" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel9" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel9" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$56:$M$58</definedName>
-    <definedName name="solver_rhs10" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs10" localSheetId="3" hidden="1">'4.v2'!$L$58:$M$60</definedName>
-    <definedName name="solver_rhs10" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$58:$M$60</definedName>
+    <definedName name="solver_rhs10" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$58:$M$60</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$N$59:$N$60</definedName>
-    <definedName name="solver_rhs11" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs11" localSheetId="3" hidden="1">'4.v2'!$N$61:$N$62</definedName>
-    <definedName name="solver_rhs11" localSheetId="2" hidden="1">'4.v2_uncostrained'!$N$61:$N$62</definedName>
+    <definedName name="solver_rhs11" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$N$61:$N$62</definedName>
     <definedName name="solver_rhs12" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$63:$M$65</definedName>
-    <definedName name="solver_rhs12" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs12" localSheetId="3" hidden="1">'4.v2'!$L$65:$M$67</definedName>
-    <definedName name="solver_rhs12" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$65:$M$67</definedName>
+    <definedName name="solver_rhs12" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$65:$M$67</definedName>
     <definedName name="solver_rhs13" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$67:$M$69</definedName>
-    <definedName name="solver_rhs13" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs13" localSheetId="3" hidden="1">'4.v2'!$L$69:$M$71</definedName>
-    <definedName name="solver_rhs13" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$69:$M$71</definedName>
+    <definedName name="solver_rhs13" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$69:$M$71</definedName>
     <definedName name="solver_rhs14" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$N$70:$N$71</definedName>
-    <definedName name="solver_rhs14" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs14" localSheetId="3" hidden="1">'4.v2'!$N$72:$N$73</definedName>
-    <definedName name="solver_rhs14" localSheetId="2" hidden="1">'4.v2_uncostrained'!$N$72:$N$73</definedName>
+    <definedName name="solver_rhs14" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$N$72:$N$73</definedName>
     <definedName name="solver_rhs15" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$52:$M$54</definedName>
-    <definedName name="solver_rhs15" localSheetId="1" hidden="1">'4.v1'!$K$53:$L$55</definedName>
-    <definedName name="solver_rhs15" localSheetId="3" hidden="1">'4.v2'!$L$54:$M$56</definedName>
-    <definedName name="solver_rhs15" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$54:$M$56</definedName>
+    <definedName name="solver_rhs15" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$54:$M$56</definedName>
     <definedName name="solver_rhs16" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$56:$M$58</definedName>
-    <definedName name="solver_rhs16" localSheetId="1" hidden="1">'4.v1'!$K$57:$L$59</definedName>
-    <definedName name="solver_rhs16" localSheetId="3" hidden="1">'4.v2'!$L$58:$M$60</definedName>
-    <definedName name="solver_rhs16" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$58:$M$60</definedName>
+    <definedName name="solver_rhs16" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$58:$M$60</definedName>
     <definedName name="solver_rhs17" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$63:$M$65</definedName>
-    <definedName name="solver_rhs17" localSheetId="1" hidden="1">'4.v1'!$K$62:$L$64</definedName>
-    <definedName name="solver_rhs17" localSheetId="3" hidden="1">'4.v2'!$L$65:$M$67</definedName>
-    <definedName name="solver_rhs17" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$65:$M$67</definedName>
+    <definedName name="solver_rhs17" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$65:$M$67</definedName>
     <definedName name="solver_rhs18" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$67:$M$69</definedName>
-    <definedName name="solver_rhs18" localSheetId="1" hidden="1">'4.v1'!$K$66:$L$68</definedName>
-    <definedName name="solver_rhs18" localSheetId="3" hidden="1">'4.v2'!$L$69:$M$71</definedName>
-    <definedName name="solver_rhs18" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$69:$M$71</definedName>
+    <definedName name="solver_rhs18" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$69:$M$71</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'4.v1'!$K$53:$M$55</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'4.v1'!$K$57:$M$59</definedName>
-    <definedName name="solver_rhs6" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs7" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs7" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'4.v1'!$K$53:$M$59</definedName>
-    <definedName name="solver_rhs8" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs8" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">'4. Infra-year timeslices_v0'!$L$52:$M$54</definedName>
-    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'4.v1'!$K$62:$M$68</definedName>
-    <definedName name="solver_rhs9" localSheetId="3" hidden="1">'4.v2'!$L$54:$M$56</definedName>
-    <definedName name="solver_rhs9" localSheetId="2" hidden="1">'4.v2_uncostrained'!$L$54:$M$56</definedName>
+    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'4.infra_year_timeslices'!$L$54:$M$56</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.05</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -348,7 +187,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -370,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="86">
   <si>
     <t>Back to contents</t>
   </si>
@@ -603,22 +442,10 @@
     <t>C_om_y = c_om * X_y</t>
   </si>
   <si>
-    <t>Q_agg_y=sum(Qagg_h)</t>
-  </si>
-  <si>
     <t>Qy</t>
   </si>
   <si>
-    <t>Xy</t>
-  </si>
-  <si>
     <t>X_max_h = lf_max_h * diag(Cap_op_h)/(n_slices*n_periods)</t>
-  </si>
-  <si>
-    <t>X_min_h = lf_min_h * diag(Cap_op_h)/(n_slices*n_periods)</t>
-  </si>
-  <si>
-    <t>Q_agg_h - Y_h'-u_h*X_h' = 0</t>
   </si>
   <si>
     <t>Q_y_y</t>
@@ -651,7 +478,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,8 +523,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,14 +573,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -888,15 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -941,33 +759,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -998,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1032,49 +823,19 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1082,13 +843,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2418,7 +2178,7 @@
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="H46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>61</v>
@@ -2426,38 +2186,38 @@
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="72">
+      <c r="H48" s="42">
         <v>769.23077000000001</v>
       </c>
-      <c r="I48" s="73">
+      <c r="I48" s="43">
         <v>461.53845999999999</v>
       </c>
-      <c r="J48" s="70">
+      <c r="J48" s="40">
         <v>230.76922999999999</v>
       </c>
-      <c r="L48" s="72">
+      <c r="L48" s="42">
         <v>769.23077000000001</v>
       </c>
-      <c r="M48" s="73">
+      <c r="M48" s="43">
         <v>461.53845999999999</v>
       </c>
-      <c r="N48" s="70">
+      <c r="N48" s="40">
         <v>230.76922999999999</v>
       </c>
     </row>
@@ -2465,22 +2225,22 @@
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="74">
+      <c r="H49" s="44">
         <v>1153.8462</v>
       </c>
-      <c r="I49" s="75">
+      <c r="I49" s="45">
         <v>692.30768999999998</v>
       </c>
-      <c r="J49" s="71">
+      <c r="J49" s="41">
         <v>346.15384999999998</v>
       </c>
-      <c r="L49" s="74">
+      <c r="L49" s="44">
         <v>1153.8462</v>
       </c>
-      <c r="M49" s="75">
+      <c r="M49" s="45">
         <v>692.30768999999998</v>
       </c>
-      <c r="N49" s="71">
+      <c r="N49" s="41">
         <v>346.15384999999998</v>
       </c>
     </row>
@@ -2907,2745 +2667,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D70AE8-2FB0-433C-AC1F-334547666420}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:AV71"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" customWidth="1"/>
-    <col min="22" max="22" width="1.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" customWidth="1"/>
-    <col min="29" max="29" width="1.7109375" customWidth="1"/>
-    <col min="33" max="33" width="1.28515625" customWidth="1"/>
-    <col min="37" max="37" width="10.28515625" customWidth="1"/>
-    <col min="41" max="41" width="1.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="S3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1500</v>
-      </c>
-      <c r="S9" s="45" cm="1">
-        <f t="array" ref="S9:U10">O9:O10/O13*S12:U13</f>
-        <v>0.54794520547945202</v>
-      </c>
-      <c r="T9" s="46">
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="U9" s="46">
-        <v>0.82191780821917804</v>
-      </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="46" cm="1">
-        <f t="array" ref="W9:Y10">P9:P10/O13*S12:U13</f>
-        <v>0.82191780821917826</v>
-      </c>
-      <c r="X9" s="46">
-        <v>2.0547945205479454</v>
-      </c>
-      <c r="Y9" s="47">
-        <v>1.2328767123287672</v>
-      </c>
-      <c r="AA9" s="34" cm="1">
-        <f t="array" ref="AA9:AB10">MMULT(G9:I10,TRANSPOSE(G44:I45))</f>
-        <v>1283.333324515</v>
-      </c>
-      <c r="AB9" s="34">
-        <v>1866.6666479999999</v>
-      </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="45" cm="1">
-        <f t="array" ref="AD9:AF10">MMULT(G9:I10,TRANSPOSE(G35:I37))</f>
-        <v>1.1872145999999999</v>
-      </c>
-      <c r="AE9" s="46">
-        <v>1.461187201</v>
-      </c>
-      <c r="AF9" s="46">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="46" cm="1">
-        <f t="array" ref="AH9:AJ10">MMULT(G9:I10,TRANSPOSE(G39:I41))</f>
-        <v>1.7351597999999999</v>
-      </c>
-      <c r="AI9" s="46">
-        <v>2.1004565999999998</v>
-      </c>
-      <c r="AJ9" s="47">
-        <v>1.2785388</v>
-      </c>
-      <c r="AL9" s="39" cm="1">
-        <f t="array" ref="AL9:AN10">AD9:AF10-MMULT(K9:M10,TRANSPOSE(K35:M37))-S9:U10</f>
-        <v>-1.5479452164512963E-8</v>
-      </c>
-      <c r="AM9" s="40">
-        <v>-1.3698630008107671E-8</v>
-      </c>
-      <c r="AN9" s="41">
-        <v>1.7808219343606879E-9</v>
-      </c>
-      <c r="AP9" s="39" cm="1">
-        <f t="array" ref="AP9:AR10">AH9:AJ10-MMULT(K9:M10,TRANSPOSE(K39:M41))-W9:Y10</f>
-        <v>-1.8219178388179103E-8</v>
-      </c>
-      <c r="AQ9" s="40">
-        <v>-2.0547945567273018E-8</v>
-      </c>
-      <c r="AR9" s="41">
-        <v>-1.2328767118319206E-8</v>
-      </c>
-      <c r="AT9" s="34">
-        <f>AA9-SUM(AD9:AF9)*O13</f>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="34">
-        <f>AB9-SUM(AH9:AJ9)*O13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>50</v>
-      </c>
-      <c r="P10" s="5">
-        <v>50</v>
-      </c>
-      <c r="S10" s="48">
-        <v>4.5662100456621002E-2</v>
-      </c>
-      <c r="T10" s="49">
-        <v>4.5662100456621002E-2</v>
-      </c>
-      <c r="U10" s="49">
-        <v>4.5662100456621002E-2</v>
-      </c>
-      <c r="V10" s="19"/>
-      <c r="W10" s="49">
-        <v>4.5662100456621002E-2</v>
-      </c>
-      <c r="X10" s="49">
-        <v>4.5662100456621002E-2</v>
-      </c>
-      <c r="Y10" s="50">
-        <v>4.5662100456621002E-2</v>
-      </c>
-      <c r="AA10" s="34">
-        <v>283.33333451499999</v>
-      </c>
-      <c r="AB10" s="34">
-        <v>366.66666665000002</v>
-      </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="48">
-        <v>0.63926941000000004</v>
-      </c>
-      <c r="AE10" s="49">
-        <v>9.1324200999999994E-2</v>
-      </c>
-      <c r="AF10" s="49">
-        <v>4.5662099999999997E-2</v>
-      </c>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="49">
-        <v>0.91324201000000005</v>
-      </c>
-      <c r="AI10" s="49">
-        <v>4.5662099999999997E-2</v>
-      </c>
-      <c r="AJ10" s="50">
-        <v>4.5662099999999997E-2</v>
-      </c>
-      <c r="AL10" s="64">
-        <v>9.5433790869847712E-9</v>
-      </c>
-      <c r="AM10" s="31">
-        <v>4.337899484063712E-11</v>
-      </c>
-      <c r="AN10" s="65">
-        <v>-4.5662100489618496E-10</v>
-      </c>
-      <c r="AP10" s="64">
-        <v>9.5433790869847712E-9</v>
-      </c>
-      <c r="AQ10" s="31">
-        <v>-4.5662100489618496E-10</v>
-      </c>
-      <c r="AR10" s="65">
-        <v>-4.5662100489618496E-10</v>
-      </c>
-      <c r="AT10" s="34">
-        <f>AA10-SUM(AD10:AF10)*O13</f>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="34">
-        <f>AB10-SUM(AH10:AJ10)*O13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S11" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" t="s">
-        <v>34</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="T12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="37">
-        <v>365</v>
-      </c>
-      <c r="P13" s="38">
-        <v>3</v>
-      </c>
-      <c r="R13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="42">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="T13" s="43">
-        <f t="shared" ref="T13:U13" si="0">1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U13" s="44">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AL13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="66" cm="1">
-        <f t="array" ref="AL14:AN16">TRANSPOSE(K35:M37)-MMULT(G13:I15,TRANSPOSE(G35:I37))</f>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="66" cm="1">
-        <f t="array" ref="AP14:AR16">TRANSPOSE(K39:M41)-MMULT(G13:I15,TRANSPOSE(G39:I41))</f>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="34">
-        <f>K44-SUM(K35:K37)*O13</f>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="34">
-        <f>K45-SUM(K39:K41)*O13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="67">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="68">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="67">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="68">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="34">
-        <f>L44-SUM(L35:L37)*O13</f>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="34">
-        <f>L45-SUM(L39:L41)*O13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AL16" s="64">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="65">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="64">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="65">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="69">
-        <f>M44-SUM(M35:M37)*O13</f>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="69">
-        <f>M45-SUM(M39:M41)*O13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P17" s="21">
-        <f>SUM(_xlfn.ANCHORARRAY(K48))</f>
-        <v>2131.4999809516498</v>
-      </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="5">
-        <v>5000</v>
-      </c>
-      <c r="L20" s="5">
-        <v>2500</v>
-      </c>
-      <c r="M20" s="5">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="5">
-        <v>8000</v>
-      </c>
-      <c r="L22" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M22" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="M24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="M25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="M26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="G34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="51">
-        <v>0</v>
-      </c>
-      <c r="H35" s="52">
-        <v>1.1872145999999999</v>
-      </c>
-      <c r="I35" s="53">
-        <v>0.63926941000000004</v>
-      </c>
-      <c r="K35" s="51">
-        <v>0</v>
-      </c>
-      <c r="L35" s="52">
-        <v>1.1872145999999999</v>
-      </c>
-      <c r="M35" s="61">
-        <v>0.63926941000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="54">
-        <v>1.3698630000000001</v>
-      </c>
-      <c r="H36" s="55">
-        <v>9.1324200999999994E-2</v>
-      </c>
-      <c r="I36" s="56">
-        <v>9.1324200999999994E-2</v>
-      </c>
-      <c r="K36" s="54">
-        <v>1.3698630000000001</v>
-      </c>
-      <c r="L36" s="55">
-        <v>9.1324200999999994E-2</v>
-      </c>
-      <c r="M36" s="62">
-        <v>9.1324200999999994E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="54">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="H37" s="55">
-        <v>0</v>
-      </c>
-      <c r="I37" s="56">
-        <v>4.5662099999999997E-2</v>
-      </c>
-      <c r="K37" s="54">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="L37" s="55">
-        <v>0</v>
-      </c>
-      <c r="M37" s="62">
-        <v>4.5662099999999997E-2</v>
-      </c>
-      <c r="AS37" s="25"/>
-      <c r="AT37" s="25"/>
-      <c r="AU37" s="25"/>
-      <c r="AV37" s="25"/>
-    </row>
-    <row r="38" spans="1:48" s="25" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="57"/>
-      <c r="I38" s="17"/>
-      <c r="K38" s="57">
-        <v>0</v>
-      </c>
-      <c r="L38" s="25">
-        <v>0</v>
-      </c>
-      <c r="M38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS38"/>
-      <c r="AT38"/>
-      <c r="AU38"/>
-      <c r="AV38"/>
-    </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="54">
-        <v>0</v>
-      </c>
-      <c r="H39" s="55">
-        <v>1.7351597999999999</v>
-      </c>
-      <c r="I39" s="56">
-        <v>0.91324201000000005</v>
-      </c>
-      <c r="K39" s="54">
-        <v>0</v>
-      </c>
-      <c r="L39" s="55">
-        <v>1.7351597999999999</v>
-      </c>
-      <c r="M39" s="62">
-        <v>0.91324201000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="54">
-        <v>2.1004565999999998</v>
-      </c>
-      <c r="H40" s="55">
-        <v>0</v>
-      </c>
-      <c r="I40" s="56">
-        <v>4.5662099999999997E-2</v>
-      </c>
-      <c r="K40" s="54">
-        <v>2.1004565999999998</v>
-      </c>
-      <c r="L40" s="55">
-        <v>0</v>
-      </c>
-      <c r="M40" s="62">
-        <v>4.5662099999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="58">
-        <v>1.2785388</v>
-      </c>
-      <c r="H41" s="59">
-        <v>0</v>
-      </c>
-      <c r="I41" s="60">
-        <v>4.5662099999999997E-2</v>
-      </c>
-      <c r="K41" s="58">
-        <v>1.2785388</v>
-      </c>
-      <c r="L41" s="59">
-        <v>0</v>
-      </c>
-      <c r="M41" s="63">
-        <v>4.5662099999999997E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="G43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" s="23">
-        <f>SUM(G35:G37)*$O$13</f>
-        <v>816.66666214999998</v>
-      </c>
-      <c r="H44" s="23">
-        <f t="shared" ref="H44:I44" si="1">SUM(H35:H37)*$O$13</f>
-        <v>466.66666236499992</v>
-      </c>
-      <c r="I44" s="23">
-        <f t="shared" si="1"/>
-        <v>283.33333451499999</v>
-      </c>
-      <c r="K44" s="23">
-        <f>SUM(K35:K37)*$O$13</f>
-        <v>816.66666214999998</v>
-      </c>
-      <c r="L44" s="23">
-        <f t="shared" ref="L44" si="2">SUM(L35:L37)*$O$13</f>
-        <v>466.66666236499992</v>
-      </c>
-      <c r="M44" s="23">
-        <f>SUM(M35:M37)*$O$13</f>
-        <v>283.33333451499999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="23">
-        <f>SUM(G39:G41)*$O$13</f>
-        <v>1233.3333210000001</v>
-      </c>
-      <c r="H45" s="23">
-        <f t="shared" ref="H45:I45" si="3">SUM(H39:H41)*$O$13</f>
-        <v>633.33332699999994</v>
-      </c>
-      <c r="I45" s="23">
-        <f t="shared" si="3"/>
-        <v>366.66666665000002</v>
-      </c>
-      <c r="K45" s="23">
-        <f>SUM(K39:K41)*$O$13</f>
-        <v>1233.3333210000001</v>
-      </c>
-      <c r="L45" s="23">
-        <f t="shared" ref="L45:M45" si="4">SUM(L39:L41)*$O$13</f>
-        <v>633.33332699999994</v>
-      </c>
-      <c r="M45" s="23">
-        <f t="shared" si="4"/>
-        <v>366.66666665000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="K47" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="K48" s="26" cm="1">
-        <f t="array" ref="K48:M49">K18:M18*K44:M45</f>
-        <v>408.33333107499999</v>
-      </c>
-      <c r="L48" s="26">
-        <v>466.66666236499992</v>
-      </c>
-      <c r="M48" s="26">
-        <v>2.8333333451499998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K49" s="26">
-        <v>616.66666050000003</v>
-      </c>
-      <c r="L49" s="26">
-        <v>633.33332699999994</v>
-      </c>
-      <c r="M49" s="26">
-        <v>3.6666666665000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K52" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="K53" s="5" cm="1">
-        <f t="array" ref="K53:M55">K20:M20*K24:M26/(O13*P13)</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="5">
-        <v>2.0547945205479454</v>
-      </c>
-      <c r="M53" s="5">
-        <v>2.2831050228310503</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="K54" s="5">
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="L54" s="5">
-        <v>2.0547945205479454</v>
-      </c>
-      <c r="M54" s="5">
-        <v>2.2831050228310503</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="5">
-        <v>0.91324200913242004</v>
-      </c>
-      <c r="L55" s="5">
-        <v>2.0547945205479454</v>
-      </c>
-      <c r="M55" s="5">
-        <v>2.2831050228310503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="K57" s="5" cm="1">
-        <f t="array" ref="K57:M59">K22:M22*K24:M26/(O13*P13)</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="5">
-        <v>4.1095890410958908</v>
-      </c>
-      <c r="M57" s="5">
-        <v>4.5662100456621006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="K58" s="5">
-        <v>2.1917808219178081</v>
-      </c>
-      <c r="L58" s="5">
-        <v>4.1095890410958908</v>
-      </c>
-      <c r="M58" s="5">
-        <v>4.5662100456621006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="5">
-        <v>1.4611872146118721</v>
-      </c>
-      <c r="L59" s="5">
-        <v>4.1095890410958908</v>
-      </c>
-      <c r="M59" s="5">
-        <v>4.5662100456621006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K61" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="5" cm="1">
-        <f t="array" ref="K62:M64">K20:M20*K30:M32/(O13*P13)</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="5">
-        <v>0</v>
-      </c>
-      <c r="M62" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="K63" s="5">
-        <v>0</v>
-      </c>
-      <c r="L63" s="5">
-        <v>0</v>
-      </c>
-      <c r="M63" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="K64" s="5">
-        <v>0</v>
-      </c>
-      <c r="L64" s="5">
-        <v>0</v>
-      </c>
-      <c r="M64" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="5" cm="1">
-        <f t="array" ref="K66:M68">K22:M22*K30:M32/(O13*P13)</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="5">
-        <v>0</v>
-      </c>
-      <c r="M66" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="K67" s="5">
-        <v>0</v>
-      </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="K68" s="5">
-        <v>0</v>
-      </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7748C287-06D8-4186-B616-E18E74BCD1AA}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:AZ95"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" customWidth="1"/>
-    <col min="18" max="18" width="3.28515625" customWidth="1"/>
-    <col min="23" max="23" width="1.7109375" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="1.28515625" customWidth="1"/>
-    <col min="41" max="41" width="10.28515625" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="1.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="T3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1500</v>
-      </c>
-      <c r="T10" s="76" cm="1">
-        <f t="array" ref="T10:V10">P10/P14*T13:V13</f>
-        <v>0.54794520547945202</v>
-      </c>
-      <c r="U10" s="77">
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="V10" s="77">
-        <v>0.82191780821917804</v>
-      </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="77" cm="1">
-        <f t="array" ref="X10:Z10">Q10/P14*T13:V13</f>
-        <v>0.82191780821917826</v>
-      </c>
-      <c r="Y10" s="77">
-        <v>2.0547945205479454</v>
-      </c>
-      <c r="Z10" s="78">
-        <v>1.2328767123287672</v>
-      </c>
-      <c r="AB10" s="6" cm="1">
-        <f t="array" ref="AB10:AC11">MMULT(H10:J11,TRANSPOSE(H46:J47))</f>
-        <v>1050</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>1550</v>
-      </c>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="6" cm="1">
-        <f t="array" ref="AE10:AG10">MMULT(H10:I10,TRANSPOSE(H37:I39))</f>
-        <v>0.59360731</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>1.4155251</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="AI10" s="6" cm="1">
-        <f t="array" ref="AI10:AK10">MMULT(H10:I10,TRANSPOSE(H41:I43))</f>
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="AJ10" s="6">
-        <v>2.1004565999999998</v>
-      </c>
-      <c r="AK10" s="6">
-        <v>1.2785388</v>
-      </c>
-      <c r="AM10" s="7" cm="1">
-        <f t="array" ref="AM10:AN11">_xlfn.ANCHORARRAY(AB10)-P10:Q11-MMULT(L10:N11,TRANSPOSE(L46:N47))</f>
-        <v>0</v>
-      </c>
-      <c r="AN10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="11" cm="1">
-        <f t="array" ref="AP10:AR10">AE10:AG10-_xlfn.ANCHORARRAY(T10)-MMULT(L10:M10,TRANSPOSE(L37:M39))-MMULT(N10,N46)/(P14*Q14)</f>
-        <v>4.0639269727194005E-9</v>
-      </c>
-      <c r="AQ10" s="12">
-        <v>-1.4155251082392795E-8</v>
-      </c>
-      <c r="AR10" s="13">
-        <v>1.3242009710978664E-9</v>
-      </c>
-      <c r="AT10" s="11" cm="1">
-        <f t="array" ref="AT10:AV10">_xlfn.ANCHORARRAY(AI10)-_xlfn.ANCHORARRAY(X10)-MMULT(L10:M10,TRANSPOSE(L41:M43))-MMULT(N10,MMULT(TRANSPOSE(N47),TRANSPOSE(Y13:Y15)))/P14</f>
-        <v>1.3242007559921554E-9</v>
-      </c>
-      <c r="AU10" s="12">
-        <v>-2.1004566634619248E-8</v>
-      </c>
-      <c r="AV10" s="13">
-        <v>-1.2785388185665436E-8</v>
-      </c>
-      <c r="AX10" s="14">
-        <f>AB10-SUM(_xlfn.ANCHORARRAY(AE10))*P14</f>
-        <v>3.2000000373955118E-6</v>
-      </c>
-      <c r="AY10" s="14">
-        <f>AC10-SUM(_xlfn.ANCHORARRAY(AI10))*P14</f>
-        <v>1.1849999964397284E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>50</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>50</v>
-      </c>
-      <c r="AD11" s="3"/>
-      <c r="AM11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP12" cm="1">
-        <f t="array" ref="AP12:AR12">AE10:AG10-_xlfn.ANCHORARRAY(T10)-MMULT(L10:M10,TRANSPOSE(L37:M39))-MMULT(N10,N46/3)/P14</f>
-        <v>4.0639269657805066E-9</v>
-      </c>
-      <c r="AQ12">
-        <v>-1.4155251089331689E-8</v>
-      </c>
-      <c r="AR12">
-        <v>1.3242009641589725E-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="H13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="U13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="V13" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="Y13" s="22">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="37">
-        <v>365</v>
-      </c>
-      <c r="Q14" s="38">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>0.2</v>
-      </c>
-      <c r="U14">
-        <v>0.2</v>
-      </c>
-      <c r="V14">
-        <v>0.6</v>
-      </c>
-      <c r="Y14" s="22">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="22">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AM15" s="7" cm="1">
-        <f t="array" ref="AM15:AN17">TRANSPOSE(L46:N47)-MMULT(H14:J16,TRANSPOSE(H46:J47))</f>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="83" cm="1">
-        <f t="array" ref="AP15:AR16">TRANSPOSE(L37:M39)-MMULT(H14:I15,TRANSPOSE(H37:I39))</f>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="83" cm="1">
-        <f t="array" ref="AT15:AV16">TRANSPOSE(L41:M43)-MMULT(H14:I15,TRANSPOSE(H41:I43))</f>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="14">
-        <f>L46-SUM(L37:L39)*P14</f>
-        <v>3.2000000373955118E-6</v>
-      </c>
-      <c r="AY15" s="14">
-        <f>L47-SUM(L41:L43)*P14</f>
-        <v>1.1849999964397284E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="16">
-        <v>1.1368684000000001E-13</v>
-      </c>
-      <c r="AN16" s="17">
-        <v>-2.8421708999999998E-13</v>
-      </c>
-      <c r="AP16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="14">
-        <f>M46-SUM(M37:M39)*P14</f>
-        <v>1.1368684000000001E-13</v>
-      </c>
-      <c r="AY16" s="14">
-        <f>M47-SUM(M41:M43)*P14</f>
-        <v>-2.8421708999999998E-13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="Q17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="M18" s="22">
-        <v>1</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="Q18" s="21">
-        <f>SUM(_xlfn.ANCHORARRAY(L50))</f>
-        <v>1300.9999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="84">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="84">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" s="5">
-        <v>6000</v>
-      </c>
-      <c r="L33" s="5">
-        <v>2500</v>
-      </c>
-      <c r="M33" s="5">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="5">
-        <v>8000</v>
-      </c>
-      <c r="L35" s="5">
-        <v>2500</v>
-      </c>
-      <c r="M35" s="5">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="55">
-        <v>0.59360731</v>
-      </c>
-      <c r="I37" s="55">
-        <v>0</v>
-      </c>
-      <c r="L37" s="55">
-        <v>0.59360731</v>
-      </c>
-      <c r="M37" s="55">
-        <v>0</v>
-      </c>
-      <c r="N37" s="24"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="55">
-        <v>1.4155251</v>
-      </c>
-      <c r="I38" s="55">
-        <v>0</v>
-      </c>
-      <c r="L38" s="55">
-        <v>1.4155251</v>
-      </c>
-      <c r="M38" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="55">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="I39" s="55">
-        <v>0</v>
-      </c>
-      <c r="L39" s="55">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="M39" s="55">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="25"/>
-      <c r="AY39" s="25"/>
-      <c r="AZ39" s="25"/>
-    </row>
-    <row r="40" spans="1:52" s="25" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J40"/>
-      <c r="N40"/>
-      <c r="AW40"/>
-      <c r="AX40"/>
-      <c r="AY40"/>
-      <c r="AZ40"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="55">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="I41" s="55">
-        <v>0</v>
-      </c>
-      <c r="L41" s="55">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="M41" s="55">
-        <v>0</v>
-      </c>
-      <c r="N41" s="24"/>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="55">
-        <v>2.1004565999999998</v>
-      </c>
-      <c r="I42" s="55">
-        <v>0</v>
-      </c>
-      <c r="L42" s="55">
-        <v>2.1004565999999998</v>
-      </c>
-      <c r="M42" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="55">
-        <v>1.2785388</v>
-      </c>
-      <c r="I43" s="55">
-        <v>0</v>
-      </c>
-      <c r="L43" s="55">
-        <v>1.2785388</v>
-      </c>
-      <c r="M43" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>84</v>
-      </c>
-      <c r="J45" t="s">
-        <v>83</v>
-      </c>
-      <c r="L45" t="s">
-        <v>88</v>
-      </c>
-      <c r="N45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="81">
-        <v>1050</v>
-      </c>
-      <c r="I46" s="53">
-        <v>0</v>
-      </c>
-      <c r="J46" s="79">
-        <v>50</v>
-      </c>
-      <c r="L46" s="81">
-        <v>1050</v>
-      </c>
-      <c r="M46" s="53">
-        <v>1.1368684000000001E-13</v>
-      </c>
-      <c r="N46" s="79">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="82">
-        <v>1550</v>
-      </c>
-      <c r="I47" s="60">
-        <v>0</v>
-      </c>
-      <c r="J47" s="80">
-        <v>50</v>
-      </c>
-      <c r="L47" s="82">
-        <v>1550</v>
-      </c>
-      <c r="M47" s="60">
-        <v>-2.8421708999999998E-13</v>
-      </c>
-      <c r="N47" s="80">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L49" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L50" s="26" cm="1">
-        <f t="array" ref="L50:N51">L18:N18*L46:N47</f>
-        <v>525</v>
-      </c>
-      <c r="M50" s="26">
-        <v>1.1368684000000001E-13</v>
-      </c>
-      <c r="N50" s="26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L51" s="26">
-        <v>775</v>
-      </c>
-      <c r="M51" s="26">
-        <v>-2.8421708999999998E-13</v>
-      </c>
-      <c r="N51" s="26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L53" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="5">
-        <f t="array" ref="L54:M56">MMULT(L21:M23,_xlfn.MUNIT(2)*K33:L33)/(P14*Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="5">
-        <v>2.0547945205479454</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" s="5">
-        <v>1.9178082191780821</v>
-      </c>
-      <c r="M55" s="5">
-        <v>1.5981735159817352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="L56" s="5">
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="M56" s="5">
-        <v>1.8264840182648401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="5">
-        <f t="array" ref="L58:M60">MMULT(L21:M23,_xlfn.MUNIT(2)*K35:L35)/(P14*Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="5">
-        <v>2.0547945205479454</v>
-      </c>
-      <c r="N58" s="27"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="L59" s="5">
-        <v>2.5570776255707761</v>
-      </c>
-      <c r="M59" s="5">
-        <v>1.5981735159817352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="L60" s="5">
-        <v>1.8264840182648401</v>
-      </c>
-      <c r="M60" s="5">
-        <v>1.8264840182648401</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="N61" s="28">
-        <f>M33*N24</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="28">
-        <f>M35*N25</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L64" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="L65" s="5">
-        <f t="array" ref="L65:M67">MMULT(L27:M29,L80:M80*_xlfn.MUNIT(2))</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="L66" s="5">
-        <v>0</v>
-      </c>
-      <c r="M66" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="L69" s="5">
-        <f t="array" ref="L69:M71">MMULT(L27:M29,L81:M81*_xlfn.MUNIT(2))</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N72" s="28">
-        <f>M35*N30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N73" s="28">
-        <f>M35*N31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Contents!A1" display="Back to contents" xr:uid="{E35B5FBE-017F-43D9-90D8-F2A92205FB0F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA78D959-20DA-4A4E-95C6-992EA69958F2}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -5656,7 +2677,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10:Z10"/>
+      <selection pane="bottomRight" activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,7 +2981,7 @@
         <v>31</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AX9" s="3" t="s">
         <v>33</v>
@@ -6000,89 +3021,89 @@
       <c r="Q10" s="5">
         <v>1500</v>
       </c>
-      <c r="T10" s="76" cm="1">
+      <c r="T10" s="46" cm="1">
         <f t="array" ref="T10:V10">P10/P14*T13:V13</f>
         <v>0.54794520547945202</v>
       </c>
-      <c r="U10" s="77">
+      <c r="U10" s="47">
         <v>1.3698630136986301</v>
       </c>
-      <c r="V10" s="77">
+      <c r="V10" s="47">
         <v>0.82191780821917804</v>
       </c>
       <c r="W10" s="12"/>
-      <c r="X10" s="77" cm="1">
+      <c r="X10" s="47" cm="1">
         <f t="array" ref="X10:Z10">Q10/P14*T13:V13</f>
         <v>0.82191780821917826</v>
       </c>
-      <c r="Y10" s="77">
+      <c r="Y10" s="47">
         <v>2.0547945205479454</v>
       </c>
-      <c r="Z10" s="78">
+      <c r="Z10" s="48">
         <v>1.2328767123287672</v>
       </c>
       <c r="AB10" s="6" cm="1">
         <f t="array" ref="AB10:AC11">MMULT(H10:J11,TRANSPOSE(H46:J47))</f>
-        <v>1050</v>
+        <v>1180</v>
       </c>
       <c r="AC10" s="6">
-        <v>1549.9999700000001</v>
+        <v>1740</v>
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="6" cm="1">
         <f t="array" ref="AE10:AG10">MMULT(H10:I10,TRANSPOSE(H37:I39))</f>
-        <v>0.59360730999999956</v>
+        <v>0.71232876999999994</v>
       </c>
       <c r="AF10" s="6">
-        <v>1.4155251</v>
+        <v>1.5342465999999999</v>
       </c>
       <c r="AG10" s="6">
-        <v>0.86757991000000001</v>
+        <v>0.98630136999999996</v>
       </c>
       <c r="AI10" s="6" cm="1">
         <f t="array" ref="AI10:AK10">MMULT(H10:I10,TRANSPOSE(H41:I43))</f>
-        <v>0.86757991000000034</v>
+        <v>1.0410959</v>
       </c>
       <c r="AJ10" s="6">
-        <v>2.1004565999999998</v>
+        <v>2.2739726</v>
       </c>
       <c r="AK10" s="6">
-        <v>1.2785388</v>
+        <v>1.4520548</v>
       </c>
       <c r="AM10" s="7" cm="1">
         <f t="array" ref="AM10:AN11">_xlfn.ANCHORARRAY(AB10)-P10:Q11-MMULT(L10:N11,TRANSPOSE(L46:N47))</f>
         <v>0</v>
       </c>
       <c r="AN10" s="8">
-        <v>-2.9999999924257281E-5</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="11" cm="1">
         <f t="array" ref="AP10:AR10">AE10:AG10-_xlfn.ANCHORARRAY(T10)-MMULT(L10:M10,TRANSPOSE(L37:M39))-MMULT(N10,N46)/(P14*Q14)</f>
-        <v>4.0639265286301907E-9</v>
+        <v>2.8767123128048411E-9</v>
       </c>
       <c r="AQ10" s="12">
-        <v>-1.4155251082392795E-8</v>
+        <v>2.4657534236638412E-8</v>
       </c>
       <c r="AR10" s="13">
-        <v>1.3242009710978664E-9</v>
+        <v>1.3698631118330695E-10</v>
       </c>
       <c r="AT10" s="11" cm="1">
         <f t="array" ref="AT10:AV10">_xlfn.ANCHORARRAY(AI10)-_xlfn.ANCHORARRAY(X10)-MMULT(L10:M10,TRANSPOSE(L41:M43))-MMULT(N10,MMULT(TRANSPOSE(N47),TRANSPOSE(Y13:Y15)))/P14</f>
-        <v>1.3242010890590628E-9</v>
+        <v>9.589040894653067E-9</v>
       </c>
       <c r="AU10" s="12">
-        <v>-2.1004566634619248E-8</v>
+        <v>-2.739726223666139E-9</v>
       </c>
       <c r="AV10" s="13">
-        <v>-1.2785388185665436E-8</v>
+        <v>5.4794520032430682E-9</v>
       </c>
       <c r="AX10" s="14">
         <f>AB10-SUM(_xlfn.ANCHORARRAY(AE10))*P14</f>
-        <v>3.2000002647691872E-6</v>
+        <v>-1.0100000054080738E-5</v>
       </c>
       <c r="AY10" s="14">
         <f>AC10-SUM(_xlfn.ANCHORARRAY(AI10))*P14</f>
-        <v>-1.8149999959859997E-5</v>
+        <v>-4.4999999317951733E-6</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -6108,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
@@ -6120,10 +3141,10 @@
         <v>50</v>
       </c>
       <c r="AB11" s="6">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="AC11" s="6">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AM11" s="9">
@@ -6142,23 +3163,23 @@
       </c>
       <c r="AP12" cm="1">
         <f t="array" ref="AP12:AR12">AE10:AG10-_xlfn.ANCHORARRAY(T10)-MMULT(L10:M10,TRANSPOSE(L37:M39))-MMULT(N10,N46/3)/P14</f>
-        <v>4.0639265216912968E-9</v>
+        <v>2.8767123128048411E-9</v>
       </c>
       <c r="AQ12">
-        <v>-1.4155251089331689E-8</v>
+        <v>2.4657534236638412E-8</v>
       </c>
       <c r="AR12">
-        <v>1.3242009641589725E-9</v>
+        <v>1.3698631118330695E-10</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="H13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="36" t="s">
+      <c r="Q13" s="34" t="s">
         <v>38</v>
       </c>
       <c r="S13" t="s">
@@ -6197,10 +3218,10 @@
       <c r="J14" s="5">
         <v>0</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="35">
         <v>365</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="36">
         <v>3</v>
       </c>
       <c r="Y14" s="22">
@@ -6247,9 +3268,9 @@
       <c r="AN15" s="8">
         <v>0</v>
       </c>
-      <c r="AP15" s="83" cm="1">
+      <c r="AP15" s="53" cm="1">
         <f t="array" ref="AP15:AR16">TRANSPOSE(L37:M39)-MMULT(H14:I15,TRANSPOSE(H37:I39))</f>
-        <v>4.6720617999999995E-16</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="18">
         <v>0</v>
@@ -6257,9 +3278,9 @@
       <c r="AR15" s="8">
         <v>0</v>
       </c>
-      <c r="AT15" s="83" cm="1">
+      <c r="AT15" s="53" cm="1">
         <f t="array" ref="AT15:AV16">TRANSPOSE(L41:M43)-MMULT(H14:I15,TRANSPOSE(H41:I43))</f>
-        <v>-3.1147079000000002E-16</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="18">
         <v>0</v>
@@ -6269,11 +3290,11 @@
       </c>
       <c r="AX15" s="14">
         <f>L46-SUM(L37:L39)*P14</f>
-        <v>1.3500000477506546E-6</v>
+        <v>-9.0500000169413397E-6</v>
       </c>
       <c r="AY15" s="14">
         <f>L47-SUM(L41:L43)*P14</f>
-        <v>-2.1000000060666935E-5</v>
+        <v>-9.9999988378840499E-7</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -6321,11 +3342,11 @@
       </c>
       <c r="AX16" s="14">
         <f>M46-SUM(M37:M39)*P14</f>
-        <v>1.8500000180665666E-6</v>
+        <v>-1.0499999802959792E-6</v>
       </c>
       <c r="AY16" s="14">
         <f>M47-SUM(M41:M43)*P14</f>
-        <v>2.8499999871200998E-6</v>
+        <v>-3.4999999911633495E-6</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
@@ -6348,7 +3369,7 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>49</v>
@@ -6364,7 +3385,7 @@
       </c>
       <c r="Q18" s="21">
         <f>SUM(_xlfn.ANCHORARRAY(L50))</f>
-        <v>1567.666655</v>
+        <v>1784.2</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -6382,27 +3403,12 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AD19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="Y20" s="85" cm="1">
-        <f t="array" ref="Y20:AA22">_xlfn.MUNIT(3)*T13:V13</f>
-        <v>0.2</v>
-      </c>
-      <c r="Z20" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="85">
-        <v>0</v>
-      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -6420,15 +3426,6 @@
       <c r="M21" s="5">
         <v>0.9</v>
       </c>
-      <c r="Y21" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="85">
-        <v>0.5</v>
-      </c>
-      <c r="AA21" s="85">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -6439,15 +3436,6 @@
       </c>
       <c r="M22" s="5">
         <v>0.7</v>
-      </c>
-      <c r="Y22" s="85">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="85">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="85">
-        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
@@ -6502,7 +3490,7 @@
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="84">
+      <c r="L28" s="54">
         <v>0</v>
       </c>
       <c r="M28" s="5">
@@ -6513,7 +3501,7 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="84">
+      <c r="L29" s="54">
         <v>0</v>
       </c>
       <c r="M29" s="5">
@@ -6521,16 +3509,6 @@
       </c>
       <c r="N29" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="T29" cm="1">
-        <f t="array" ref="T29:V29">MMULT(P10,T13:V13)/365</f>
-        <v>0.54794520547945202</v>
-      </c>
-      <c r="U29">
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="V29">
-        <v>0.82191780821917804</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
@@ -6549,12 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T32">
-        <f>1/(365*3)</f>
-        <v>9.1324200913242006E-4</v>
-      </c>
-    </row>
+    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
@@ -6562,7 +3535,7 @@
       <c r="E33" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="31" t="s">
         <v>73</v>
       </c>
       <c r="K33" s="5">
@@ -6574,23 +3547,19 @@
       <c r="M33" s="5">
         <v>2500</v>
       </c>
-      <c r="U33">
-        <f>1/365</f>
-        <v>2.7397260273972603E-3</v>
-      </c>
     </row>
     <row r="34" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="31" t="s">
         <v>74</v>
       </c>
       <c r="K35" s="5">
@@ -6618,50 +3587,34 @@
       <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="55">
-        <v>-4.6720617999999995E-16</v>
-      </c>
-      <c r="I37" s="55">
-        <v>0.59360731</v>
-      </c>
-      <c r="L37" s="55">
-        <v>0</v>
-      </c>
-      <c r="M37" s="55">
-        <v>0.59360731</v>
+      <c r="H37" s="38">
+        <v>0</v>
+      </c>
+      <c r="I37" s="38">
+        <v>0.71232876999999994</v>
+      </c>
+      <c r="L37" s="38">
+        <v>0</v>
+      </c>
+      <c r="M37" s="38">
+        <v>0.71232876999999994</v>
       </c>
       <c r="N37" s="24"/>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="U37" cm="1">
-        <f t="array" ref="U37:V37">MMULT(Q37:S37,L37:M39)*365</f>
-        <v>833.33332865</v>
-      </c>
-      <c r="V37">
-        <v>216.66666814999999</v>
-      </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="55">
-        <v>1.4155251</v>
-      </c>
-      <c r="I38" s="55">
-        <v>0</v>
-      </c>
-      <c r="L38" s="55">
-        <v>1.4155251</v>
-      </c>
-      <c r="M38" s="55">
+      <c r="H38" s="38">
+        <v>1.5342465999999999</v>
+      </c>
+      <c r="I38" s="38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="38">
+        <v>1.5342465999999999</v>
+      </c>
+      <c r="M38" s="38">
         <v>0</v>
       </c>
     </row>
@@ -6669,16 +3622,16 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="55">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="I39" s="55">
-        <v>0</v>
-      </c>
-      <c r="L39" s="55">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="M39" s="55">
+      <c r="H39" s="38">
+        <v>0.98630136999999996</v>
+      </c>
+      <c r="I39" s="38">
+        <v>0</v>
+      </c>
+      <c r="L39" s="38">
+        <v>0.98630136999999996</v>
+      </c>
+      <c r="M39" s="38">
         <v>0</v>
       </c>
       <c r="AW39" s="25"/>
@@ -6701,17 +3654,17 @@
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="55">
-        <v>3.1147079000000002E-16</v>
-      </c>
-      <c r="I41" s="55">
-        <v>0.86757991000000001</v>
-      </c>
-      <c r="L41" s="55">
-        <v>0</v>
-      </c>
-      <c r="M41" s="55">
-        <v>0.86757991000000001</v>
+      <c r="H41" s="38">
+        <v>0</v>
+      </c>
+      <c r="I41" s="38">
+        <v>1.0410959</v>
+      </c>
+      <c r="L41" s="38">
+        <v>0</v>
+      </c>
+      <c r="M41" s="38">
+        <v>1.0410959</v>
       </c>
       <c r="N41" s="24"/>
     </row>
@@ -6719,16 +3672,16 @@
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="55">
-        <v>2.1004565999999998</v>
-      </c>
-      <c r="I42" s="55">
-        <v>0</v>
-      </c>
-      <c r="L42" s="55">
-        <v>2.1004565999999998</v>
-      </c>
-      <c r="M42" s="55">
+      <c r="H42" s="38">
+        <v>2.2739726</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0</v>
+      </c>
+      <c r="L42" s="38">
+        <v>2.2739726</v>
+      </c>
+      <c r="M42" s="38">
         <v>0</v>
       </c>
     </row>
@@ -6736,22 +3689,22 @@
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="55">
-        <v>1.2785388</v>
-      </c>
-      <c r="I43" s="55">
-        <v>0</v>
-      </c>
-      <c r="L43" s="55">
-        <v>1.2785388</v>
-      </c>
-      <c r="M43" s="55">
+      <c r="H43" s="38">
+        <v>1.4520548</v>
+      </c>
+      <c r="I43" s="38">
+        <v>0</v>
+      </c>
+      <c r="L43" s="38">
+        <v>1.4520548</v>
+      </c>
+      <c r="M43" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="H44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>61</v>
@@ -6759,62 +3712,62 @@
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L45" t="s">
         <v>84</v>
       </c>
-      <c r="J45" t="s">
-        <v>83</v>
-      </c>
-      <c r="L45" t="s">
-        <v>88</v>
-      </c>
       <c r="N45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="81">
-        <v>833.33333000000005</v>
-      </c>
-      <c r="I46" s="53">
-        <v>216.66667000000001</v>
-      </c>
-      <c r="J46" s="79">
-        <v>50</v>
-      </c>
-      <c r="L46" s="81">
-        <v>833.33333000000005</v>
-      </c>
-      <c r="M46" s="53">
-        <v>216.66667000000001</v>
-      </c>
-      <c r="N46" s="79">
-        <v>50</v>
+      <c r="H46" s="51">
+        <v>920</v>
+      </c>
+      <c r="I46" s="37">
+        <v>260</v>
+      </c>
+      <c r="J46" s="49">
+        <v>180</v>
+      </c>
+      <c r="L46" s="51">
+        <v>920</v>
+      </c>
+      <c r="M46" s="37">
+        <v>260</v>
+      </c>
+      <c r="N46" s="49">
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="82">
-        <v>1233.3333</v>
-      </c>
-      <c r="I47" s="60">
-        <v>316.66667000000001</v>
-      </c>
-      <c r="J47" s="80">
-        <v>50</v>
-      </c>
-      <c r="L47" s="82">
-        <v>1233.3333</v>
-      </c>
-      <c r="M47" s="60">
-        <v>316.66667000000001</v>
-      </c>
-      <c r="N47" s="80">
-        <v>50</v>
+      <c r="H47" s="52">
+        <v>1360</v>
+      </c>
+      <c r="I47" s="39">
+        <v>380</v>
+      </c>
+      <c r="J47" s="50">
+        <v>240</v>
+      </c>
+      <c r="L47" s="52">
+        <v>1360</v>
+      </c>
+      <c r="M47" s="39">
+        <v>380</v>
+      </c>
+      <c r="N47" s="50">
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -6825,29 +3778,29 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L50" s="26" cm="1">
         <f t="array" ref="L50:N51">L18:N18*L46:N47</f>
-        <v>416.66666500000002</v>
+        <v>460</v>
       </c>
       <c r="M50" s="26">
-        <v>216.66667000000001</v>
+        <v>260</v>
       </c>
       <c r="N50" s="26">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L51" s="26">
-        <v>616.66665</v>
+        <v>680</v>
       </c>
       <c r="M51" s="26">
-        <v>316.66667000000001</v>
+        <v>380</v>
       </c>
       <c r="N51" s="26">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L53" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -6926,7 +3879,7 @@
         <v>1.8264840182648401</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -7109,6 +4062,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Back to contents" xr:uid="{ACCBD60B-A9B3-4720-AF89-3910570A3B77}"/>
   </hyperlinks>
